--- a/medicine/Psychotrope/Mille-Colonnes/Mille-Colonnes.xlsx
+++ b/medicine/Psychotrope/Mille-Colonnes/Mille-Colonnes.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Les Mille-Colonnes est un établissement très renommé, fondé en 1833 dans la rue de la Gaîté, située alors peu au-delà des barrières de Paris. Il devient parisien lors de l'agrandissement de Paris effectif début janvier 1860. Son adresse exacte est 20 rue de la Gaîté[1].
-Les prestations du lieu sont multiples et diverses : restaurant, café, bal avec une grande salle utilisée aussi pour des réunions et banquets politiques ou autres. Durant l'année 1907, création d'un cinéma, qui fonctionne jusqu'à fin novembre 1930[2]. L'établissement des Mille-Colonnes disparaît par la suite. Les réunions qui s'y tenaient pouvaient rassembler jusqu'à 2 000 participants[3].  
-Un complexe de salles de cinéma construit sur l'emplacement des Mille-Colonnes reprend brièvement son nom durant la première année de son activité en 1976-1977. Devenu le Cinévog-Montparnasse, il réduit ses activités à partir de 1988. Fermé en avril 1991, puis démoli, il voit s'élever à sa place un hôtel-restaurant[4]. 
+Les Mille-Colonnes est un établissement très renommé, fondé en 1833 dans la rue de la Gaîté, située alors peu au-delà des barrières de Paris. Il devient parisien lors de l'agrandissement de Paris effectif début janvier 1860. Son adresse exacte est 20 rue de la Gaîté.
+Les prestations du lieu sont multiples et diverses : restaurant, café, bal avec une grande salle utilisée aussi pour des réunions et banquets politiques ou autres. Durant l'année 1907, création d'un cinéma, qui fonctionne jusqu'à fin novembre 1930. L'établissement des Mille-Colonnes disparaît par la suite. Les réunions qui s'y tenaient pouvaient rassembler jusqu'à 2 000 participants.  
+Un complexe de salles de cinéma construit sur l'emplacement des Mille-Colonnes reprend brièvement son nom durant la première année de son activité en 1976-1977. Devenu le Cinévog-Montparnasse, il réduit ses activités à partir de 1988. Fermé en avril 1991, puis démoli, il voit s'élever à sa place un hôtel-restaurant. 
 Rue de la Gaîté, aucune trace des Mille-Colonnes n'apparaît plus aujourd'hui.
 </t>
         </is>
@@ -515,9 +527,11 @@
           <t>Le nom des Mille-Colonnes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le nom des Mille-Colonnes pris par l'établissement de la rue de la Gaité n'est pas original. Il a été également pris par divers autres restaurants ou cafés de France et Belgique[5], certains toujours en activité. Dans l'un d'entre eux, le café des Mille-Colonnes, situé au Palais-Royal à Paris, fondé en 1807[6], travaillait la « Belle Limonadière », célèbre pour sa beauté. En 1837, Balzac en parle dans son roman César Birotteau[7]. Un autre café parisien des Mille-Colonnes existait en 1862-1863 boulevard du Temple[8]. Les Mille Colonnes était également le nom du Casino de Saint-Nazaire[9].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom des Mille-Colonnes pris par l'établissement de la rue de la Gaité n'est pas original. Il a été également pris par divers autres restaurants ou cafés de France et Belgique, certains toujours en activité. Dans l'un d'entre eux, le café des Mille-Colonnes, situé au Palais-Royal à Paris, fondé en 1807, travaillait la « Belle Limonadière », célèbre pour sa beauté. En 1837, Balzac en parle dans son roman César Birotteau. Un autre café parisien des Mille-Colonnes existait en 1862-1863 boulevard du Temple. Les Mille Colonnes était également le nom du Casino de Saint-Nazaire.
 </t>
         </is>
       </c>
@@ -546,9 +560,11 @@
           <t>Les Mille-Colonnes de 1833 à fin 1859</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Émile de Labédollière écrit fin 1859[11] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Émile de Labédollière écrit fin 1859 :
 Dans la même rue (de la Gaîté) se dessine une porte monumentale, qu'une toiture chinoise, étincelantes de briques multicolores, surmonte en manière de fronton. Sur le pignon, une Vénus danse en s'accompagnant au tambour de basque. Sous le cintre de la porte, derrière la grille d'entrée, verdoient les massifs d'un jardin. Aux deux côtés, dans des niches ouvragées, de petits amours tiennent des torches. Au-dessus d'eux sont placés en cariatides des amours joufflus, au sourire narquois ; l'un pince de la lyre ; l'autre joue de la flûte ; un troisième chante dans un mirliton. D'un côté du portique est un restaurant, de l'autre un café ; tous deux sont réunis par un pont jeté derrière le portique, et fermé par des vitraux de couleurs.
 C'est l'établissement des Mille-Colonnes, dirigé par Constant père et fils. Le père était un simple ouvrier forgeron, qui, après avoir gagné quelque argent dans ce rude métier, chercha une occupation plus agréable et plus lucrative. Il prit pour architecte Duquesney, qui éleva rue de la Gaité, en 1833, un édifice dans le style italien, d'une architecture svelte et légère. Le vestibule, avec son double escalier, est un des plus beaux que nous connaissions. Cette construction consolida la réputation de Duquesney, auquel fut confié, comme nous l'avons dit, l'exécution de la gare de Strasbourg.
 De 1857 à 1859, de grandes améliorations ont été apportées à l'établissement des Mille-Colonnes, sous la direction d'Edmond Plaine. La salle qui sert aux bals d'hiver et aux banquets a été peinte à fresque par MM. Arban et Gagnères. Les murailles et le plafond sont garnis de treillages sur lesquels serpentent des feuilles et des fleurs, et dans la voussure qui fait face à l'orchestre, une nymphe aux formes gracieuses, qui joue du triangle, semble sortie des mains de  Prud'hon.
@@ -582,9 +598,11 @@
           <t>Les Mille-Colonnes en 1899</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Un Guide des plaisirs de Paris écrit, en 1899[12] :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Un Guide des plaisirs de Paris écrit, en 1899 :
 Le Bal des Mille-Colonnes, vu la modicité des prix, attire le voyou de l'avenue du Maine et du boulevard de Grenelle ; mais cette fois, c'est le voyou bien mis, qui a quitté la casquette pour le chapeau rond, et la blouse pour la veste, et se mêle ainsi plus aisément à la foule des garçons blanchisseurs, des garçons bouchers et coiffeurs, qui composent la clientèle ordinaire de ce bal.</t>
         </is>
       </c>
@@ -613,11 +631,13 @@
           <t>Le cinéma des Mille-Colonnes</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Durant l'année 1907 vient s'ajouter au restaurant-dancing des Mille-Colonnes un cinéma de 500 places baptisé Les Mille-Colonnes. Il est installé dans un bâtiment pourvu d'une rotonde. Le cinéma disparaît fin novembre 1930[2].  
-En 1976, un complexe de quatre salles construit à l'emplacement du restaurant reprend le nom des Mille-Colonnes. Il change d'appellation en 1977 et devient le Cinévog-Montparnasse. Une salle supplémentaire est ajoutée en 1983[4].
-À partir de 1988, ce complexe de salles spécialisées dans les films pornographiques réduit progressivement son activité . Pour finir par disparaître en avril 1991. Il est par la suite démoli et un hôtel-restaurant prend sa place[4]. C'est le bâtiment qu'on peut voir actuellement dans la rue de la Gaité.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant l'année 1907 vient s'ajouter au restaurant-dancing des Mille-Colonnes un cinéma de 500 places baptisé Les Mille-Colonnes. Il est installé dans un bâtiment pourvu d'une rotonde. Le cinéma disparaît fin novembre 1930.  
+En 1976, un complexe de quatre salles construit à l'emplacement du restaurant reprend le nom des Mille-Colonnes. Il change d'appellation en 1977 et devient le Cinévog-Montparnasse. Une salle supplémentaire est ajoutée en 1983.
+À partir de 1988, ce complexe de salles spécialisées dans les films pornographiques réduit progressivement son activité . Pour finir par disparaître en avril 1991. Il est par la suite démoli et un hôtel-restaurant prend sa place. C'est le bâtiment qu'on peut voir actuellement dans la rue de la Gaité.
 </t>
         </is>
       </c>
@@ -646,9 +666,11 @@
           <t>Date de la disparition du bal des Mille-Colonnes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 1910, le Marquis de Rochegude, indique qu'au N°20 de la rue de la Gaîté se trouve le « Cinéma des Mille Colonnes, Ancien Bal des Mille Colonnes... À côté se trouve Bobino (Music Hall)[13] »...  Ce qui laisse supposer qu'à cette date le bal a disparu. Le Cinéma des Mille Colonnes se partageant la même adresse avec le Music Hall Bobino. 
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1910, le Marquis de Rochegude, indique qu'au N°20 de la rue de la Gaîté se trouve le « Cinéma des Mille Colonnes, Ancien Bal des Mille Colonnes... À côté se trouve Bobino (Music Hall) »...  Ce qui laisse supposer qu'à cette date le bal a disparu. Le Cinéma des Mille Colonnes se partageant la même adresse avec le Music Hall Bobino. 
 </t>
         </is>
       </c>
